--- a/model/compared_results/yeast_me2_result/yeast_me2_results.xlsx
+++ b/model/compared_results/yeast_me2_result/yeast_me2_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6073</v>
+        <v>0.6091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9455</v>
+        <v>0.9483</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6772</v>
+        <v>0.6792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7552</v>
+        <v>0.7526</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9335</v>
+        <v>0.9316</v>
       </c>
       <c r="H2" t="n">
-        <v>0.463</v>
+        <v>0.3969</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6384</v>
+        <v>0.6401</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7764</v>
+        <v>0.7786999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9306</v>
+        <v>0.9326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6491</v>
+        <v>0.5891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9407</v>
+        <v>0.9449</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6792</v>
+        <v>0.6704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7785</v>
+        <v>0.7449</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9123</v>
+        <v>0.8929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4499</v>
+        <v>0.4013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6368</v>
+        <v>0.6312</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7949000000000001</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8524</v>
+        <v>0.8517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8036</v>
+        <v>0.8436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8541</v>
+        <v>0.852</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5946</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8258</v>
+        <v>0.8441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9307</v>
+        <v>0.9328</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3741</v>
+        <v>0.409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5778</v>
+        <v>0.5808</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8289</v>
+        <v>0.8478</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8773</v>
+        <v>0.8895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8813</v>
+        <v>0.8939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6161</v>
+        <v>0.6329</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8149</v>
+        <v>0.8239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9205</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3361</v>
+        <v>0.3739</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5893</v>
+        <v>0.6004</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8225</v>
+        <v>0.8297</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531</v>
+        <v>0.8558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6455</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8603</v>
+        <v>0.866</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5823</v>
+        <v>0.5713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7326</v>
+        <v>0.6868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7983</v>
+        <v>0.8051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2159</v>
+        <v>0.1662</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5718</v>
+        <v>0.5605</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7529</v>
+        <v>0.7176</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8187</v>
+        <v>0.8280999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8418</v>
+        <v>0.88</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8178</v>
+        <v>0.8262</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5699</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8279</v>
+        <v>0.8501</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9225</v>
+        <v>0.9329</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4145</v>
+        <v>0.384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5747</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8298</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,210 @@
       </c>
       <c r="J10" t="n">
         <v>0.6953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6816</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9374</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4941</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8126</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6873</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9295</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7948</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8486</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6223</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1945</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6425999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4293</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9171</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4519</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5955</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9171</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6091</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9281</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6466</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8124</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6105</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7685999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6582</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4816</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7819</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KmeansSMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9454</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5345</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7003</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8250999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6526999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7474</v>
       </c>
     </row>
   </sheetData>
